--- a/tests/fixtures/MetabolismAndGeneExpression.xlsx
+++ b/tests/fixtures/MetabolismAndGeneExpression.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Init species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="5" name="_FilterDatabase_0">Compartments!$A$2:$G$4</definedName>
@@ -44,12 +44,12 @@
     <definedName localSheetId="21" name="_FilterDatabase_0">References!$A$1:$D$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0">References!$A$1:$D$1</definedName>
     <definedName name="Id">'Rate laws'!$A:$A</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$G$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$K$12</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$D$20</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$F$18</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$G$4</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$12</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$D$20</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$F$18</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -669,14 +669,14 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,7 +686,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="8" fillId="30" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,7 +1106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1123,42 +1123,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="26" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="26" t="inlineStr">
+      <c r="C3" s="26" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="27" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="27" t="n"/>
-      <c r="C3" s="27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="27" t="n"/>
@@ -1169,7 +1165,7 @@
     <row r="5">
       <c r="A5" s="27" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="27" t="n"/>
@@ -1180,220 +1176,231 @@
     <row r="6">
       <c r="A6" s="27" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="27" t="n"/>
       <c r="C6" s="27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="27" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="27" t="n"/>
       <c r="C7" s="27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="27" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="27" t="n"/>
       <c r="C8" s="27" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="27" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="27" t="n"/>
       <c r="C9" s="27" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="27" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="27" t="n"/>
       <c r="C10" s="27" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="27" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="27" t="n"/>
       <c r="C11" s="27" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="27" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="27" t="n"/>
       <c r="C12" s="27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="27" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="27" t="n"/>
       <c r="C13" s="27" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="27" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="27" t="n"/>
       <c r="C14" s="27" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="27" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="27" t="n"/>
       <c r="C15" s="27" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="27" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="27" t="n"/>
       <c r="C16" s="27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="27" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="27" t="n"/>
       <c r="C17" s="27" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="27" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="27" t="n"/>
       <c r="C18" s="27" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="27" t="n"/>
       <c r="C19" s="27" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="27" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="27" t="n"/>
       <c r="C20" s="27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="27" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="27" t="n"/>
       <c r="C21" s="27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="27" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="27" t="n"/>
       <c r="C22" s="27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="27" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="27" t="n"/>
       <c r="C23" s="27" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="27" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="27" t="n"/>
       <c r="C24" s="27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="27" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="27" t="n"/>
       <c r="C25" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="27" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="27" t="n"/>
+      <c r="C26" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1452,7 +1459,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1545,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD21"/>
+  <dimension ref="A1:AMM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -1663,7 +1670,7 @@
     <row customHeight="1" ht="13.5" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4259,7 +4266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4286,7 +4293,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4840,23 +4847,6 @@
         </is>
       </c>
     </row>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
   <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
@@ -4869,7 +4859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4890,7 +4880,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4993,7 +4983,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5081,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5199,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5661,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5734,7 +5724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFC3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -5752,7 +5742,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5931,7 +5921,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6083,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6167,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6325,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6463,7 +6453,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6558,7 +6548,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6667,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6755,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6865,7 +6855,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6992,7 +6982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="D3" xSplit="1" ySplit="2"/>
@@ -7025,7 +7015,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -9379,7 +9369,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9831,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -10205,7 +10195,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/tests/fixtures/MetabolismAndGeneExpression.xlsx
+++ b/tests/fixtures/MetabolismAndGeneExpression.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="5" name="_FilterDatabase_0">Compartments!$A$2:$G$4</definedName>
@@ -44,12 +44,12 @@
     <definedName localSheetId="21" name="_FilterDatabase_0">References!$A$1:$D$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0">References!$A$1:$D$1</definedName>
     <definedName name="Id">'Rate laws'!$A:$A</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$G$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$K$12</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$D$20</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$F$18</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$G$4</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$12</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$D$20</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$F$18</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -669,14 +669,14 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,7 +686,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="8" fillId="30" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,7 +1106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1123,42 +1123,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="26" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="26" t="inlineStr">
+      <c r="C3" s="26" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="27" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="27" t="n"/>
-      <c r="C3" s="27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="27" t="n"/>
@@ -1169,7 +1165,7 @@
     <row r="5">
       <c r="A5" s="27" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="27" t="n"/>
@@ -1180,220 +1176,231 @@
     <row r="6">
       <c r="A6" s="27" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="27" t="n"/>
       <c r="C6" s="27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="27" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="27" t="n"/>
       <c r="C7" s="27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="27" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="27" t="n"/>
       <c r="C8" s="27" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="27" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="27" t="n"/>
       <c r="C9" s="27" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="27" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="27" t="n"/>
       <c r="C10" s="27" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="27" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="27" t="n"/>
       <c r="C11" s="27" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="27" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="27" t="n"/>
       <c r="C12" s="27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="27" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="27" t="n"/>
       <c r="C13" s="27" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="27" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="27" t="n"/>
       <c r="C14" s="27" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="27" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="27" t="n"/>
       <c r="C15" s="27" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="27" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="27" t="n"/>
       <c r="C16" s="27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="27" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="27" t="n"/>
       <c r="C17" s="27" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="27" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="27" t="n"/>
       <c r="C18" s="27" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="27" t="n"/>
       <c r="C19" s="27" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="27" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="27" t="n"/>
       <c r="C20" s="27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="27" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="27" t="n"/>
       <c r="C21" s="27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="27" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="27" t="n"/>
       <c r="C22" s="27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="27" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="27" t="n"/>
       <c r="C23" s="27" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="27" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="27" t="n"/>
       <c r="C24" s="27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="27" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="27" t="n"/>
       <c r="C25" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="27" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="27" t="n"/>
+      <c r="C26" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1452,7 +1459,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1545,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD21"/>
+  <dimension ref="A1:AMM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -1663,7 +1670,7 @@
     <row customHeight="1" ht="13.5" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4259,7 +4266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4286,7 +4293,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4840,23 +4847,6 @@
         </is>
       </c>
     </row>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
   <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
@@ -4869,7 +4859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4890,7 +4880,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4993,7 +4983,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5081,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5199,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5661,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5734,7 +5724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFC3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -5752,7 +5742,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5931,7 +5921,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6083,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6167,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6325,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6463,7 +6453,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6558,7 +6548,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6667,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6755,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6865,7 +6855,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6992,7 +6982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="D3" xSplit="1" ySplit="2"/>
@@ -7025,7 +7015,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -9379,7 +9369,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9831,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -10205,7 +10195,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/tests/fixtures/MetabolismAndGeneExpression.xlsx
+++ b/tests/fixtures/MetabolismAndGeneExpression.xlsx
@@ -1496,7 +1496,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5693,7 +5693,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5953,7 +5953,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6195,7 +6195,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6353,7 +6353,7 @@
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6480,7 +6480,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6694,7 +6694,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6882,7 +6882,7 @@
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -7035,7 +7035,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -9389,7 +9389,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -9851,7 +9851,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -10215,7 +10215,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
